--- a/22048_第3Q_Excel入門.xlsx
+++ b/22048_第3Q_Excel入門.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22048\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\快活CLUB\Desktop\ExcelSpreadsheet2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="7104"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題１" sheetId="1" r:id="rId1"/>
-    <sheet name="問題２" sheetId="10" r:id="rId2"/>
-    <sheet name="問題４" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="問題１ (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="問題２" sheetId="10" r:id="rId3"/>
+    <sheet name="問題４" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="155">
   <si>
     <t>11月</t>
   </si>
@@ -884,7 +884,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,8 +921,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -945,6 +951,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,19 +1026,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,6 +1189,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1159,6 +1213,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1178,6 +1237,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1272,9 +1336,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -1336,6 +1398,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1355,6 +1422,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1374,6 +1446,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1393,6 +1470,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1524,6 +1606,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1543,6 +1630,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1562,6 +1654,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1581,6 +1678,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1712,6 +1814,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1731,6 +1838,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1750,6 +1862,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1769,6 +1886,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-DE37-4BA0-A4D3-33534737948D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1890,7 +2012,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2018,7 +2139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,7 +2405,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2326,7 +2446,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2391,7 +2511,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3975,42 +4094,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="6.69921875" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>15</v>
@@ -4037,190 +4157,190 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>805</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>715</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>850</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>898</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>753</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>920</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f>SUM(C5:H5)</f>
         <v>4941</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f>I5/$I$10</f>
         <v>0.2998543512562204</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>306</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>255</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>281</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>395</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>207</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>293</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f>SUM(C6:H6)</f>
         <v>1737</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:J11" si="0">I6/$I$10</f>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J10" si="0">I6/$I$10</f>
         <v>0.10541327831047458</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>593</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>502</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>609</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>567</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>545</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>587</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f>SUM(C7:H7)</f>
         <v>3403</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>0.20651778128413642</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>331</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>357</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>582</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>546</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>403</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>495</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f>SUM(C8:H8)</f>
         <v>2714</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>0.1647044544240806</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>371</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>406</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>896</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>431</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>775</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>804</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f>SUM(C9:H9)</f>
         <v>3683</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>0.22351013472508799</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>SUM(C5:C9)</f>
         <v>2406</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f t="shared" ref="D10:I10" si="1">SUM(D5:D9)</f>
         <v>2235</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>3218</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>2837</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>2683</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>3099</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f t="shared" si="1"/>
         <v>16478</v>
       </c>
@@ -4229,31 +4349,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <f>AVERAGE(C5:C9)</f>
         <v>481.2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f t="shared" ref="D11:I11" si="2">AVERAGE(D5:D9)</f>
         <v>447</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <f t="shared" si="2"/>
         <v>643.6</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>567.4</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f t="shared" si="2"/>
         <v>536.6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
         <v>619.79999999999995</v>
       </c>
@@ -4261,7 +4381,7 @@
         <f t="shared" si="2"/>
         <v>3295.6</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4275,35 +4395,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
+        <v>805</v>
+      </c>
+      <c r="D5" s="12">
+        <v>715</v>
+      </c>
+      <c r="E5" s="12">
+        <v>850</v>
+      </c>
+      <c r="F5" s="12">
+        <v>898</v>
+      </c>
+      <c r="G5" s="12">
+        <v>753</v>
+      </c>
+      <c r="H5" s="12">
+        <v>920</v>
+      </c>
+      <c r="I5" s="12">
+        <f>SUM(C5:H5)</f>
+        <v>4941</v>
+      </c>
+      <c r="J5" s="13">
+        <f>I5/$I$10</f>
+        <v>0.2998543512562204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>306</v>
+      </c>
+      <c r="D6" s="12">
+        <v>255</v>
+      </c>
+      <c r="E6" s="12">
+        <v>281</v>
+      </c>
+      <c r="F6" s="12">
+        <v>395</v>
+      </c>
+      <c r="G6" s="12">
+        <v>207</v>
+      </c>
+      <c r="H6" s="12">
+        <v>293</v>
+      </c>
+      <c r="I6" s="12">
+        <f>SUM(C6:H6)</f>
+        <v>1737</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J10" si="0">I6/$I$10</f>
+        <v>0.10541327831047458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
+        <v>593</v>
+      </c>
+      <c r="D7" s="12">
+        <v>502</v>
+      </c>
+      <c r="E7" s="12">
+        <v>609</v>
+      </c>
+      <c r="F7" s="12">
+        <v>567</v>
+      </c>
+      <c r="G7" s="12">
+        <v>545</v>
+      </c>
+      <c r="H7" s="12">
+        <v>587</v>
+      </c>
+      <c r="I7" s="12">
+        <f>SUM(C7:H7)</f>
+        <v>3403</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20651778128413642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>331</v>
+      </c>
+      <c r="D8" s="12">
+        <v>357</v>
+      </c>
+      <c r="E8" s="12">
+        <v>582</v>
+      </c>
+      <c r="F8" s="12">
+        <v>546</v>
+      </c>
+      <c r="G8" s="12">
+        <v>403</v>
+      </c>
+      <c r="H8" s="12">
+        <v>495</v>
+      </c>
+      <c r="I8" s="12">
+        <f>SUM(C8:H8)</f>
+        <v>2714</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1647044544240806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>371</v>
+      </c>
+      <c r="D9" s="12">
+        <v>406</v>
+      </c>
+      <c r="E9" s="12">
+        <v>896</v>
+      </c>
+      <c r="F9" s="12">
+        <v>431</v>
+      </c>
+      <c r="G9" s="12">
+        <v>775</v>
+      </c>
+      <c r="H9" s="12">
+        <v>804</v>
+      </c>
+      <c r="I9" s="12">
+        <f>SUM(C9:H9)</f>
+        <v>3683</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22351013472508799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12">
+        <f>SUM(C5:C9)</f>
+        <v>2406</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:I10" si="1">SUM(D5:D9)</f>
+        <v>2235</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>3218</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2837</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>2683</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>3099</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>16478</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
+        <f>AVERAGE(C5:C9)</f>
+        <v>481.2</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:I11" si="2">AVERAGE(D5:D9)</f>
+        <v>447</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>643.6</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="2"/>
+        <v>567.4</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="2"/>
+        <v>536.6</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="2"/>
+        <v>619.79999999999995</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>3295.6</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="B1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>146</v>
@@ -4321,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>150</v>
       </c>
@@ -4342,7 +4764,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>151</v>
       </c>
@@ -4363,7 +4785,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>152</v>
       </c>
@@ -4384,7 +4806,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
         <v>153</v>
       </c>
@@ -4405,7 +4827,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4440,38 +4862,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -4494,7 +4917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +4940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4540,7 +4963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -4563,7 +4986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -4586,7 +5009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4609,7 +5032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -4632,7 +5055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -4655,7 +5078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -4678,7 +5101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -4701,7 +5124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -4724,7 +5147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4747,7 +5170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4770,7 +5193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -4793,7 +5216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4816,7 +5239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -4839,7 +5262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -4862,7 +5285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -4885,7 +5308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -4908,7 +5331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -4931,7 +5354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -4954,7 +5377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -4977,7 +5400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -5000,7 +5423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -5023,7 +5446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -5046,7 +5469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -5069,7 +5492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -5092,7 +5515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -5115,7 +5538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -5138,7 +5561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -5161,7 +5584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -5184,7 +5607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -5207,7 +5630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -5230,7 +5653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -5253,7 +5676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -5276,7 +5699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -5299,7 +5722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -5322,7 +5745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
@@ -5345,7 +5768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -5368,7 +5791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -5391,7 +5814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -5414,7 +5837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -5437,7 +5860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -5460,7 +5883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -5483,7 +5906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -5506,7 +5929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -5529,7 +5952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,7 +5975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -5575,7 +5998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -5598,7 +6021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -5621,7 +6044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>92</v>
       </c>
@@ -5644,7 +6067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -5667,7 +6090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>94</v>
       </c>
@@ -5690,7 +6113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -5713,7 +6136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -5736,7 +6159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -5759,7 +6182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -5782,7 +6205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>99</v>
       </c>
@@ -5805,7 +6228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>100</v>
       </c>
@@ -5828,7 +6251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>101</v>
       </c>
@@ -5851,7 +6274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -5874,7 +6297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
@@ -5897,7 +6320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>104</v>
       </c>
@@ -5920,7 +6343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
@@ -5943,7 +6366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>106</v>
       </c>
@@ -5966,7 +6389,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>107</v>
       </c>
@@ -5989,7 +6412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>108</v>
       </c>
@@ -6012,7 +6435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>109</v>
       </c>
@@ -6035,7 +6458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
@@ -6058,7 +6481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>111</v>
       </c>
@@ -6081,7 +6504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
@@ -6104,7 +6527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>113</v>
       </c>
@@ -6127,7 +6550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>114</v>
       </c>
@@ -6150,7 +6573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>115</v>
       </c>
@@ -6173,7 +6596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
@@ -6196,7 +6619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
@@ -6219,7 +6642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>118</v>
       </c>
@@ -6242,7 +6665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -6265,7 +6688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -6288,7 +6711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>121</v>
       </c>
@@ -6311,7 +6734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
@@ -6334,7 +6757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>123</v>
       </c>
@@ -6357,7 +6780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
@@ -6380,7 +6803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
@@ -6403,7 +6826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>126</v>
       </c>
@@ -6426,7 +6849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>127</v>
       </c>
@@ -6449,7 +6872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>128</v>
       </c>
@@ -6472,7 +6895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>129</v>
       </c>
@@ -6495,7 +6918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>130</v>
       </c>
@@ -6518,7 +6941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -6541,7 +6964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
@@ -6564,7 +6987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
@@ -6587,7 +7010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>134</v>
       </c>
@@ -6610,7 +7033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>135</v>
       </c>
@@ -6633,7 +7056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>136</v>
       </c>
@@ -6656,7 +7079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>137</v>
       </c>
@@ -6679,7 +7102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>138</v>
       </c>
@@ -6702,7 +7125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>139</v>
       </c>
@@ -6725,7 +7148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>140</v>
       </c>
@@ -6748,7 +7171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>141</v>
       </c>
@@ -6771,7 +7194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>142</v>
       </c>
@@ -6794,7 +7217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>143</v>
       </c>
@@ -6817,7 +7240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>144</v>
       </c>
@@ -6849,20 +7272,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="E20:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E20" s="5"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.4">
       <c r="F22" s="6" t="s">
         <v>146</v>
       </c>
@@ -6879,7 +7303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E23" s="7" t="s">
         <v>150</v>
       </c>
@@ -6900,7 +7324,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E24" s="7" t="s">
         <v>151</v>
       </c>
@@ -6921,7 +7345,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E25" s="7" t="s">
         <v>152</v>
       </c>
@@ -6942,7 +7366,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E26" s="7" t="s">
         <v>153</v>
       </c>
@@ -6963,7 +7387,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
